--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,16 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>forced</t>
   </si>
   <si>
     <t>warning</t>
@@ -64,217 +61,184 @@
     <t>died</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -632,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,37 +765,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,31 +933,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>123</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0.96875</v>
-      </c>
-      <c r="L8">
-        <v>31</v>
-      </c>
-      <c r="M8">
-        <v>31</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7207792207792207</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9583333333333334</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.9444444444444444</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4583333333333333</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3605150214592275</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C14">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3571428571428572</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.8392857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,39 +1307,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
         <v>45</v>
@@ -1393,531 +1333,411 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L18">
+        <v>104</v>
+      </c>
+      <c r="M18">
+        <v>104</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L19">
+        <v>77</v>
+      </c>
+      <c r="M19">
+        <v>77</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.725</v>
+      </c>
+      <c r="L20">
+        <v>87</v>
+      </c>
+      <c r="M20">
+        <v>87</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.69375</v>
+      </c>
+      <c r="L24">
+        <v>111</v>
+      </c>
+      <c r="M24">
+        <v>111</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L26">
+        <v>41</v>
+      </c>
+      <c r="M26">
+        <v>41</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>26</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L28">
+        <v>54</v>
+      </c>
+      <c r="M28">
+        <v>54</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.5404699738903395</v>
+      </c>
+      <c r="L29">
+        <v>207</v>
+      </c>
+      <c r="M29">
+        <v>207</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.54</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>59</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.525</v>
+      </c>
+      <c r="L31">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>21</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="L32">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>0.2375</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>61</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.175</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>33</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L25">
-        <v>45</v>
-      </c>
-      <c r="M25">
-        <v>45</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L27">
-        <v>39</v>
-      </c>
-      <c r="M27">
-        <v>39</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>0.75</v>
-      </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>9</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L29">
-        <v>29</v>
-      </c>
-      <c r="M29">
-        <v>29</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31">
-        <v>0.7</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
       <c r="M32">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.6551724137931034</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2007,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.6363636363636364</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2033,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.6164383561643836</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2059,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.5882352941176471</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2085,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2111,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.5833333333333334</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2137,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.5789473684210527</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2163,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.5600000000000001</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2189,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.5555555555555556</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L43">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2215,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.5384615384615384</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2241,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.5258215962441315</v>
+        <v>0.375</v>
       </c>
       <c r="L45">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2267,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>101</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.5193798449612403</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L46">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2293,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2319,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.4891304347826087</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2345,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>47</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.4666666666666667</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2371,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.4642857142857143</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2397,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.4571428571428571</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2423,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.45</v>
+        <v>0.0134297520661157</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2449,241 +2269,85 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>955</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.4166666666666667</v>
+        <v>0.01289490651192779</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>14</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.4</v>
+        <v>0.01261682242990654</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.35</v>
+        <v>0.005632040050062578</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="L56">
-        <v>12</v>
-      </c>
-      <c r="M56">
-        <v>12</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K57">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="L57">
-        <v>11</v>
-      </c>
-      <c r="M57">
-        <v>11</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K58">
-        <v>0.28125</v>
-      </c>
-      <c r="L58">
-        <v>9</v>
-      </c>
-      <c r="M58">
-        <v>9</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K59">
-        <v>0.05121951219512195</v>
-      </c>
-      <c r="L59">
-        <v>21</v>
-      </c>
-      <c r="M59">
-        <v>21</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K60">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="L60">
-        <v>12</v>
-      </c>
-      <c r="M60">
-        <v>12</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K61">
-        <v>0.0106951871657754</v>
-      </c>
-      <c r="L61">
-        <v>12</v>
-      </c>
-      <c r="M61">
-        <v>13</v>
-      </c>
-      <c r="N61">
-        <v>0.92</v>
-      </c>
-      <c r="O61">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1110</v>
+        <v>3178</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -64,13 +61,16 @@
     <t>war</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
@@ -82,160 +82,172 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>wow</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>please</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>corona</t>
@@ -596,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>
@@ -839,13 +851,13 @@
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8928571428571429</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5787671232876712</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -965,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3684210526315789</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2228682170542636</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C11">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2116402116402116</v>
+        <v>0.2073643410852713</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1733333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7894736842105263</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1215,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1275167785234899</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7826086956521739</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.07539682539682539</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1327,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.8125</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1341,13 +1353,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1367,13 +1379,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7323943661971831</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L18">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1385,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1393,13 +1405,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7264150943396226</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L19">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1411,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1419,13 +1431,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.725</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L20">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M20">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1437,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1471,13 +1483,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1489,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1497,13 +1509,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1515,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1523,13 +1535,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.69375</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L24">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1541,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1549,13 +1561,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1567,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1575,13 +1587,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6507936507936508</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1593,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1601,13 +1613,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6041666666666666</v>
+        <v>0.65625</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1619,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1627,13 +1639,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.574468085106383</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L28">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1645,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1653,13 +1665,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5404699738903395</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1671,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>176</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1679,13 +1691,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.54</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1697,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1705,13 +1717,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.525</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1723,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1731,13 +1743,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5106382978723404</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1757,13 +1769,13 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1775,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1783,13 +1795,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L34">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1801,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1809,13 +1821,13 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4943820224719101</v>
+        <v>0.4677966101694915</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1827,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1861,13 +1873,13 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4571428571428571</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1879,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1887,13 +1899,13 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.4309623430962343</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L38">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="M38">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1905,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>136</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1913,13 +1925,13 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4307692307692308</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1931,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1965,13 +1977,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.423728813559322</v>
+        <v>0.40625</v>
       </c>
       <c r="L41">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1983,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1991,13 +2003,13 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.4102564102564102</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2009,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2017,13 +2029,13 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3939393939393939</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2035,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2043,13 +2055,13 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2061,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2069,13 +2081,13 @@
         <v>64</v>
       </c>
       <c r="K45">
-        <v>0.375</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2087,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2095,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="K46">
-        <v>0.3023255813953488</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L46">
         <v>13</v>
@@ -2113,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2121,13 +2133,13 @@
         <v>66</v>
       </c>
       <c r="K47">
-        <v>0.2142857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2139,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2147,13 +2159,13 @@
         <v>67</v>
       </c>
       <c r="K48">
-        <v>0.05145413870246085</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2165,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>848</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2173,13 +2185,13 @@
         <v>68</v>
       </c>
       <c r="K49">
-        <v>0.04567307692307692</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2191,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>397</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2199,13 +2211,13 @@
         <v>69</v>
       </c>
       <c r="K50">
-        <v>0.03827751196172249</v>
+        <v>0.3</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2217,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>402</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2225,13 +2237,13 @@
         <v>70</v>
       </c>
       <c r="K51">
-        <v>0.02996670366259711</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2243,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>874</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2251,13 +2263,13 @@
         <v>71</v>
       </c>
       <c r="K52">
-        <v>0.0134297520661157</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2269,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>955</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2277,25 +2289,25 @@
         <v>72</v>
       </c>
       <c r="K53">
-        <v>0.01289490651192779</v>
+        <v>0.03914988814317674</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M53">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>3062</v>
+        <v>859</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2303,25 +2315,25 @@
         <v>73</v>
       </c>
       <c r="K54">
-        <v>0.01261682242990654</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N54">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2113</v>
+        <v>868</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2329,25 +2341,129 @@
         <v>74</v>
       </c>
       <c r="K55">
-        <v>0.005632040050062578</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3178</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56">
+        <v>0.02615384615384615</v>
+      </c>
+      <c r="L56">
+        <v>17</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57">
+        <v>0.01778193729527375</v>
+      </c>
+      <c r="L57">
+        <v>38</v>
+      </c>
+      <c r="M57">
+        <v>44</v>
+      </c>
+      <c r="N57">
+        <v>0.86</v>
+      </c>
+      <c r="O57">
+        <v>0.14</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>0.00966183574879227</v>
+      </c>
+      <c r="L58">
+        <v>30</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
+      <c r="N58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59">
+        <v>0.00594679186228482</v>
+      </c>
+      <c r="L59">
+        <v>19</v>
+      </c>
+      <c r="M59">
+        <v>25</v>
+      </c>
+      <c r="N59">
+        <v>0.76</v>
+      </c>
+      <c r="O59">
+        <v>0.24</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>
